--- a/results/deseq_results/light_dark_deseq2.xlsx
+++ b/results/deseq_results/light_dark_deseq2.xlsx
@@ -17,6 +17,8 @@
     <sheet name="25_D&gt;L" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="34_L&gt;D" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="34_D&gt;L" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="common_genes_L&gt;D" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="common_genes_D&gt;L" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1090,6 +1092,418 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>gene_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>product_x</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>subsystem_x</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>system_x</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>MED134_10206</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>deoxyribodipyrimidine photolyase-related protein</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Unspecified</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Unspecified</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>MED134_03409</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>hypothetical protein</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Unspecified</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Unspecified</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>MED134_05334</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>GTP cyclohydrolase I</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>['00790 Folate biosynthesis [PATH:dok00790]']</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>['09108 Metabolism of cofactors and vitamins']</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>MED134_14271</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>short chain dehydrogenase</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>['00061 Fatty acid biosynthesis [PATH:dok00061]', '00780 Biotin metabolism [PATH:dok00780]']</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>['09103 Lipid metabolism', '09108 Metabolism of cofactors and vitamins']</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>MED134_14276</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>hypothetical protein</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Unspecified</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Unspecified</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>MED134_03404</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ABC1 family protein</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Unspecified</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Unspecified</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>MED134_10211</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>DNA photolyase/cryptochrome, animal cryptochrome and (6-4) photolyase subfamily</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Unspecified</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Unspecified</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>MED134_10201</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>cryptochrome, DASH family</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Unspecified</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Unspecified</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>MED134_10216</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>hypothetical protein</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Unspecified</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Unspecified</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>MED134_13081</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>transcription regulator, MerR family</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Unspecified</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Unspecified</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>MED134_13076</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>phytoene dehydrogenase</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>['00906 Carotenoid biosynthesis [PATH:dok00906]']</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>['09109 Metabolism of terpenoids and polyketides']</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>MED134_10221</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>hypothetical protein</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Unspecified</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Unspecified</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>MED134_10226</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>peptide-methionine (S)-S-oxide reductase</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Unspecified</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Unspecified</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>MED134_07089</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>sensor of blue-light using FAD</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Unspecified</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Unspecified</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>MED134_03969</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>hypothetical protein</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Unspecified</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Unspecified</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>gene_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>product_x</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>subsystem_x</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>system_x</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/results/deseq_results/light_dark_deseq2.xlsx
+++ b/results/deseq_results/light_dark_deseq2.xlsx
@@ -5636,7 +5636,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>['00071 Fatty acid degradation [PATH:dok00071]', '00592 alpha-Linolenic acid metabolism [PATH:dok00592]', '00280 Valine, leucine and isoleucine degradation [PATH:dok00280]', '00281 Geraniol degradation [PATH:dok00281]', '00362 Benzoate degradation [PATH:dok00362]']</t>
+          <t>['00071 Fatty acid degradation [PATH:dok00071]', '00592 alpha-Linolenic acid metabolism [PATH:dok00592]', '00280 Valine, leucine and isoleucine degradation [PATH:dok00280]', '00907 Pinene, camphor and geraniol degradation [PATH:dok00907]', '00362 Benzoate degradation [PATH:dok00362]']</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">

--- a/results/deseq_results/light_dark_deseq2.xlsx
+++ b/results/deseq_results/light_dark_deseq2.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,30 +499,30 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>MED134_04999</t>
+          <t>MED134_07119</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>398.7514545748286</v>
+        <v>1157.877705025341</v>
       </c>
       <c r="C2" t="n">
-        <v>1.509415098208195</v>
+        <v>1.205359686966581</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3457847479644908</v>
+        <v>0.2391398721005125</v>
       </c>
       <c r="E2" t="n">
-        <v>4.365187033533355</v>
+        <v>5.040396134610119</v>
       </c>
       <c r="F2" t="n">
-        <v>1.270140341567788e-05</v>
+        <v>4.645692102808679e-07</v>
       </c>
       <c r="G2" t="n">
-        <v>0.003045161468908771</v>
+        <v>0.0003341414044945143</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>putative cell adhesion protein</t>
+          <t>rhodopsin</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -539,110 +539,110 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>MED134_07119</t>
+          <t>MED134_05334</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1164.319931002572</v>
+        <v>2989.893938277334</v>
       </c>
       <c r="C3" t="n">
-        <v>1.227995833803133</v>
+        <v>1.107200083419611</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2225207003016155</v>
+        <v>0.1693182787940628</v>
       </c>
       <c r="E3" t="n">
-        <v>5.518568978700169</v>
+        <v>6.539164532650769</v>
       </c>
       <c r="F3" t="n">
-        <v>3.417713175796025e-08</v>
+        <v>6.186343836153115e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>2.458190201691291e-05</v>
+        <v>1.779811121661251e-07</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>rhodopsin</t>
+          <t>GTP cyclohydrolase I</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Unspecified</t>
+          <t>['00790 Folate biosynthesis [PATH:dok00790]']</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Unspecified</t>
+          <t>['09108 Metabolism of cofactors and vitamins']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>MED134_05334</t>
+          <t>MED134_14276</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2982.682018722749</v>
+        <v>723.4164525040411</v>
       </c>
       <c r="C4" t="n">
-        <v>1.107311283186411</v>
+        <v>1.055254023280939</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1569150127147207</v>
+        <v>0.2169851492929067</v>
       </c>
       <c r="E4" t="n">
-        <v>7.056758075784364</v>
+        <v>4.8632545900939</v>
       </c>
       <c r="F4" t="n">
-        <v>1.704319611614457e-12</v>
+        <v>1.154711687128055e-06</v>
       </c>
       <c r="G4" t="n">
-        <v>4.903327522614792e-09</v>
+        <v>0.0006644211047734828</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>GTP cyclohydrolase I</t>
+          <t>hypothetical protein</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>['00790 Folate biosynthesis [PATH:dok00790]']</t>
+          <t>Unspecified</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>['09108 Metabolism of cofactors and vitamins']</t>
+          <t>Unspecified</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>MED134_10206</t>
+          <t>MED134_10211</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>896.7603456205899</v>
+        <v>799.745890910879</v>
       </c>
       <c r="C5" t="n">
-        <v>1.067618685311426</v>
+        <v>0.9937453942828954</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2483979614263456</v>
+        <v>0.2295715339150197</v>
       </c>
       <c r="E5" t="n">
-        <v>4.298017097970403</v>
+        <v>4.328696059724675</v>
       </c>
       <c r="F5" t="n">
-        <v>1.723328725773464e-05</v>
+        <v>1.499947679596349e-05</v>
       </c>
       <c r="G5" t="n">
-        <v>0.003792939598774212</v>
+        <v>0.004315349474198695</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>deoxyribodipyrimidine photolyase-related protein</t>
+          <t>DNA photolyase/cryptochrome, animal cryptochrome and (6-4) photolyase subfamily</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -659,30 +659,30 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>MED134_14276</t>
+          <t>MED134_13081</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>716.4175970951627</v>
+        <v>3331.148158276661</v>
       </c>
       <c r="C6" t="n">
-        <v>1.065963448832028</v>
+        <v>0.9051606444200694</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2019061711045136</v>
+        <v>0.1576704030894105</v>
       </c>
       <c r="E6" t="n">
-        <v>5.27949910099701</v>
+        <v>5.740840555261204</v>
       </c>
       <c r="F6" t="n">
-        <v>1.295375148043433e-07</v>
+        <v>9.420776081965742e-09</v>
       </c>
       <c r="G6" t="n">
-        <v>7.453588601841912e-05</v>
+        <v>1.355178639390772e-05</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>hypothetical protein</t>
+          <t>transcription regulator, MerR family</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -699,70 +699,70 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>MED134_03404</t>
+          <t>MED134_13076</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4585.753660263164</v>
+        <v>5503.024642813063</v>
       </c>
       <c r="C7" t="n">
-        <v>1.050080622157588</v>
+        <v>0.8725913406469042</v>
       </c>
       <c r="D7" t="n">
-        <v>0.256863781429105</v>
+        <v>0.1979315797628315</v>
       </c>
       <c r="E7" t="n">
-        <v>4.088083638398873</v>
+        <v>4.408550377319645</v>
       </c>
       <c r="F7" t="n">
-        <v>4.349513475762748e-05</v>
+        <v>1.040648158588933e-05</v>
       </c>
       <c r="G7" t="n">
-        <v>0.007068421751417533</v>
+        <v>0.003326605280289288</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>ABC1 family protein</t>
+          <t>phytoene dehydrogenase</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Unspecified</t>
+          <t>['00906 Carotenoid biosynthesis [PATH:dok00906]']</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Unspecified</t>
+          <t>['09109 Metabolism of terpenoids and polyketides']</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>MED134_10211</t>
+          <t>MED134_14266</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>793.0128287737786</v>
+        <v>1189.241090155462</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9921431425970151</v>
+        <v>0.5448558039155416</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2131586915545681</v>
+        <v>0.1136075123242721</v>
       </c>
       <c r="E8" t="n">
-        <v>4.654481294482093</v>
+        <v>4.795948725295114</v>
       </c>
       <c r="F8" t="n">
-        <v>3.247973201546961e-06</v>
+        <v>1.619066946598966e-06</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0009344418900850605</v>
+        <v>0.0007763426008942043</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>DNA photolyase/cryptochrome, animal cryptochrome and (6-4) photolyase subfamily</t>
+          <t>deoxyribodipyrimidine photo-lyase, class I</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -773,246 +773,6 @@
       <c r="J8" t="inlineStr">
         <is>
           <t>Unspecified</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>MED134_10201</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>986.6774208524872</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9795958916392515</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.239848516983776</v>
-      </c>
-      <c r="E9" t="n">
-        <v>4.08422742803748</v>
-      </c>
-      <c r="F9" t="n">
-        <v>4.422370230292513e-05</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.007068421751417533</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>cryptochrome, DASH family</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>Unspecified</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Unspecified</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>MED134_10396</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>2100.981410725632</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9701347594216642</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.2406504112023327</v>
-      </c>
-      <c r="E10" t="n">
-        <v>4.031303144568491</v>
-      </c>
-      <c r="F10" t="n">
-        <v>5.546844460469746e-05</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.007979135756385728</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>hypothetical protein</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>Unspecified</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>Unspecified</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>MED134_13081</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3294.116959641044</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.8948498245074246</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.146989232366111</v>
-      </c>
-      <c r="E11" t="n">
-        <v>6.087859703073978</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1.144300755005927e-09</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1.646076636076025e-06</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>transcription regulator, MerR family</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>Unspecified</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Unspecified</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>MED134_13076</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>5435.125357094592</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.8780394243457821</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.1846679606247604</v>
-      </c>
-      <c r="E12" t="n">
-        <v>4.754692808515556</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1.987483858619625e-06</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.00063533234013874</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>phytoene dehydrogenase</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>['00906 Carotenoid biosynthesis [PATH:dok00906]']</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>['09109 Metabolism of terpenoids and polyketides']</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>MED134_14266</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1179.750827997079</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.5454666158398712</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.1055178304846232</v>
-      </c>
-      <c r="E13" t="n">
-        <v>5.169425994968316</v>
-      </c>
-      <c r="F13" t="n">
-        <v>2.348140957471702e-07</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.0001098709653263187</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>deoxyribodipyrimidine photo-lyase, class I</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>Unspecified</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>Unspecified</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>MED134_13071</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>2662.763501395439</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.530271439278367</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.1303315812273543</v>
-      </c>
-      <c r="E14" t="n">
-        <v>4.068633513724855</v>
-      </c>
-      <c r="F14" t="n">
-        <v>4.728966064440137e-05</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.007160650193365408</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>phytoene synthase</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>['00906 Carotenoid biosynthesis [PATH:dok00906]']</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>['09109 Metabolism of terpenoids and polyketides']</t>
         </is>
       </c>
     </row>
@@ -1510,7 +1270,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1567,46 +1327,6 @@
       <c r="J1" s="1" t="inlineStr">
         <is>
           <t>system</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>MED134_06219</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1194.225387543908</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-0.5012992873100672</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.1105743788179856</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-4.533593520206399</v>
-      </c>
-      <c r="F2" t="n">
-        <v>5.798857360174408e-06</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.00151666478411107</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>two-component system sensor histidine kinase</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Unspecified</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Unspecified</t>
         </is>
       </c>
     </row>
@@ -3123,7 +2843,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3186,30 +2906,30 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>MED134_04999</t>
+          <t>MED134_07119</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>263.8843538770307</v>
+        <v>1400.783264572397</v>
       </c>
       <c r="C2" t="n">
-        <v>1.785130909703794</v>
+        <v>1.798184928315524</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2174482570951456</v>
+        <v>0.1114474471102317</v>
       </c>
       <c r="E2" t="n">
-        <v>8.209451450892521</v>
+        <v>16.13482385591978</v>
       </c>
       <c r="F2" t="n">
-        <v>2.222012863802376e-16</v>
+        <v>1.452213099177295e-58</v>
       </c>
       <c r="G2" t="n">
-        <v>2.912851462071775e-14</v>
+        <v>4.096693152779149e-55</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>putative cell adhesion protein</t>
+          <t>rhodopsin</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -3226,30 +2946,30 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>MED134_07119</t>
+          <t>MED134_10396</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1363.286304206187</v>
+        <v>1444.730746699438</v>
       </c>
       <c r="C3" t="n">
-        <v>1.726923283370085</v>
+        <v>1.652359392751229</v>
       </c>
       <c r="D3" t="n">
-        <v>0.09409291809892877</v>
+        <v>0.1264087990216336</v>
       </c>
       <c r="E3" t="n">
-        <v>18.35338214885001</v>
+        <v>13.07155360655269</v>
       </c>
       <c r="F3" t="n">
-        <v>3.101890012789687e-75</v>
+        <v>4.787760386085059e-39</v>
       </c>
       <c r="G3" t="n">
-        <v>8.92413756679593e-72</v>
+        <v>3.376568012286488e-36</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>rhodopsin</t>
+          <t>hypothetical protein</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -3266,30 +2986,30 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>MED134_10396</t>
+          <t>MED134_04009</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1405.063320784901</v>
+        <v>1458.617848777485</v>
       </c>
       <c r="C4" t="n">
-        <v>1.657843432066322</v>
+        <v>1.631303572039239</v>
       </c>
       <c r="D4" t="n">
-        <v>0.103206446075226</v>
+        <v>0.103135987531708</v>
       </c>
       <c r="E4" t="n">
-        <v>16.06337099194306</v>
+        <v>15.81701606859306</v>
       </c>
       <c r="F4" t="n">
-        <v>4.60812017240135e-58</v>
+        <v>2.374841964910336e-56</v>
       </c>
       <c r="G4" t="n">
-        <v>4.419187245332895e-55</v>
+        <v>3.349714591506029e-53</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>hypothetical protein</t>
+          <t>ATP-dependent protease La (LON)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -3306,30 +3026,30 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>MED134_04009</t>
+          <t>MED134_07089</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1408.019748536151</v>
+        <v>415.007881105191</v>
       </c>
       <c r="C5" t="n">
-        <v>1.577137700985879</v>
+        <v>1.483122613062007</v>
       </c>
       <c r="D5" t="n">
-        <v>0.088559519697416</v>
+        <v>0.1308239877716615</v>
       </c>
       <c r="E5" t="n">
-        <v>17.80878787932154</v>
+        <v>11.33677881498789</v>
       </c>
       <c r="F5" t="n">
-        <v>6.040379077895564e-71</v>
+        <v>8.626142267247742e-30</v>
       </c>
       <c r="G5" t="n">
-        <v>8.689085303552768e-68</v>
+        <v>3.47633533370084e-27</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>ATP-dependent protease La (LON)</t>
+          <t>sensor of blue-light using FAD</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -3346,30 +3066,30 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>MED134_07089</t>
+          <t>MED134_03404</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>392.1849363063814</v>
+        <v>4079.127528684301</v>
       </c>
       <c r="C6" t="n">
-        <v>1.39444028091776</v>
+        <v>1.477122762719432</v>
       </c>
       <c r="D6" t="n">
-        <v>0.125107563932659</v>
+        <v>0.1002922135723561</v>
       </c>
       <c r="E6" t="n">
-        <v>11.14593104593051</v>
+        <v>14.72818985746841</v>
       </c>
       <c r="F6" t="n">
-        <v>7.495619839672953e-29</v>
+        <v>4.249360866418482e-49</v>
       </c>
       <c r="G6" t="n">
-        <v>1.79707485656159e-26</v>
+        <v>3.995815668055512e-46</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>sensor of blue-light using FAD</t>
+          <t>ABC1 family protein</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -3386,30 +3106,30 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>MED134_10206</t>
+          <t>MED134_04999</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>890.0516705424279</v>
+        <v>222.3026189819996</v>
       </c>
       <c r="C7" t="n">
-        <v>1.379536686632098</v>
+        <v>1.471484317111874</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1068084306890627</v>
+        <v>0.1415460876009586</v>
       </c>
       <c r="E7" t="n">
-        <v>12.91599059860883</v>
+        <v>10.39579646496643</v>
       </c>
       <c r="F7" t="n">
-        <v>3.657070377389426e-38</v>
+        <v>2.5911303148963e-25</v>
       </c>
       <c r="G7" t="n">
-        <v>1.315173934468672e-35</v>
+        <v>6.400224585157339e-23</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>deoxyribodipyrimidine photolyase-related protein</t>
+          <t>putative cell adhesion protein</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -3426,30 +3146,30 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>MED134_03404</t>
+          <t>MED134_10206</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3901.956399581368</v>
+        <v>918.2775406214441</v>
       </c>
       <c r="C8" t="n">
-        <v>1.377367183192555</v>
+        <v>1.459742230183785</v>
       </c>
       <c r="D8" t="n">
-        <v>0.09966624951181573</v>
+        <v>0.1241039805523127</v>
       </c>
       <c r="E8" t="n">
-        <v>13.81979546676194</v>
+        <v>11.76225149014032</v>
       </c>
       <c r="F8" t="n">
-        <v>1.93619193113234e-43</v>
+        <v>6.108335725489182e-32</v>
       </c>
       <c r="G8" t="n">
-        <v>1.392606046466936e-40</v>
+        <v>3.446323016320997e-29</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>ABC1 family protein</t>
+          <t>deoxyribodipyrimidine photolyase-related protein</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -3470,22 +3190,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>968.3467421513142</v>
+        <v>994.2437839242407</v>
       </c>
       <c r="C9" t="n">
-        <v>1.316323229422447</v>
+        <v>1.389441394048575</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1014369874538877</v>
+        <v>0.1199633372385698</v>
       </c>
       <c r="E9" t="n">
-        <v>12.97675791112029</v>
+        <v>11.58221691753547</v>
       </c>
       <c r="F9" t="n">
-        <v>1.65749370017383e-38</v>
+        <v>5.071724368699839e-31</v>
       </c>
       <c r="G9" t="n">
-        <v>7.364584616964731e-36</v>
+        <v>2.384555740683708e-28</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -3510,22 +3230,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>675.7951955472765</v>
+        <v>690.2607437106996</v>
       </c>
       <c r="C10" t="n">
-        <v>1.308567449708098</v>
+        <v>1.333811515084719</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1016564443563864</v>
+        <v>0.1284304349679113</v>
       </c>
       <c r="E10" t="n">
-        <v>12.87244953325863</v>
+        <v>10.38547845312504</v>
       </c>
       <c r="F10" t="n">
-        <v>6.432915160824201e-38</v>
+        <v>2.887180237930804e-25</v>
       </c>
       <c r="G10" t="n">
-        <v>2.056388546410137e-35</v>
+        <v>6.400224585157339e-23</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -3546,80 +3266,80 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>MED134_05334</t>
+          <t>MED134_10211</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3229.592471755956</v>
+        <v>800.3283602579306</v>
       </c>
       <c r="C11" t="n">
-        <v>1.210228696076969</v>
+        <v>1.27094719615868</v>
       </c>
       <c r="D11" t="n">
-        <v>0.09330420203339206</v>
+        <v>0.1217398951566034</v>
       </c>
       <c r="E11" t="n">
-        <v>12.97078448453852</v>
+        <v>10.43985781755243</v>
       </c>
       <c r="F11" t="n">
-        <v>1.791869736487769e-38</v>
+        <v>1.630547405946678e-25</v>
       </c>
       <c r="G11" t="n">
-        <v>7.364584616964731e-36</v>
+        <v>4.599774232175579e-23</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>GTP cyclohydrolase I</t>
+          <t>DNA photolyase/cryptochrome, animal cryptochrome and (6-4) photolyase subfamily</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>['00790 Folate biosynthesis [PATH:dok00790]']</t>
+          <t>Unspecified</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>['09108 Metabolism of cofactors and vitamins']</t>
+          <t>Unspecified</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>MED134_10211</t>
+          <t>MED134_05334</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>778.2680603262216</v>
+        <v>3338.469351566203</v>
       </c>
       <c r="C12" t="n">
-        <v>1.200315932178486</v>
+        <v>1.238032515184518</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1029460055885831</v>
+        <v>0.1122492748765939</v>
       </c>
       <c r="E12" t="n">
-        <v>11.65966494101256</v>
+        <v>11.02931414519695</v>
       </c>
       <c r="F12" t="n">
-        <v>2.048468935768305e-31</v>
+        <v>2.75961512531993e-28</v>
       </c>
       <c r="G12" t="n">
-        <v>5.357677389277649e-29</v>
+        <v>9.731092835659403e-26</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>DNA photolyase/cryptochrome, animal cryptochrome and (6-4) photolyase subfamily</t>
+          <t>GTP cyclohydrolase I</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Unspecified</t>
+          <t>['00790 Folate biosynthesis [PATH:dok00790]']</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Unspecified</t>
+          <t>['09108 Metabolism of cofactors and vitamins']</t>
         </is>
       </c>
     </row>
@@ -3630,22 +3350,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1769.816633003853</v>
+        <v>1829.044878763631</v>
       </c>
       <c r="C13" t="n">
-        <v>1.158476851066755</v>
+        <v>1.168276305467332</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1068565282766561</v>
+        <v>0.1289778086955542</v>
       </c>
       <c r="E13" t="n">
-        <v>10.84142325930156</v>
+        <v>9.057963670517852</v>
       </c>
       <c r="F13" t="n">
-        <v>2.190365731107784e-27</v>
+        <v>1.329085052125384e-19</v>
       </c>
       <c r="G13" t="n">
-        <v>4.84744785261315e-25</v>
+        <v>2.499565954697139e-17</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -3670,22 +3390,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>671.018388462329</v>
+        <v>678.2031231939741</v>
       </c>
       <c r="C14" t="n">
-        <v>1.100384057050384</v>
+        <v>1.148543631108318</v>
       </c>
       <c r="D14" t="n">
-        <v>0.08624907927779199</v>
+        <v>0.1087238518844734</v>
       </c>
       <c r="E14" t="n">
-        <v>12.75821221819951</v>
+        <v>10.56386074629442</v>
       </c>
       <c r="F14" t="n">
-        <v>2.805664698538098e-37</v>
+        <v>4.382576333074037e-26</v>
       </c>
       <c r="G14" t="n">
-        <v>8.071897337694109e-35</v>
+        <v>1.373694203955762e-23</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -3710,22 +3430,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>914.4485963755598</v>
+        <v>945.4103943465799</v>
       </c>
       <c r="C15" t="n">
-        <v>1.028259610331953</v>
+        <v>1.102017769605602</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1252575936701397</v>
+        <v>0.1469734651689508</v>
       </c>
       <c r="E15" t="n">
-        <v>8.209159861715285</v>
+        <v>7.498072991194678</v>
       </c>
       <c r="F15" t="n">
-        <v>2.227415090913418e-16</v>
+        <v>6.476283670780267e-14</v>
       </c>
       <c r="G15" t="n">
-        <v>2.912851462071775e-14</v>
+        <v>9.615576965932176e-12</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -3750,22 +3470,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4905.15208367499</v>
+        <v>5002.033074721482</v>
       </c>
       <c r="C16" t="n">
-        <v>1.017374542550468</v>
+        <v>1.03408770974715</v>
       </c>
       <c r="D16" t="n">
-        <v>0.07706379246969074</v>
+        <v>0.09959005615309559</v>
       </c>
       <c r="E16" t="n">
-        <v>13.20171912056628</v>
+        <v>10.38344338472398</v>
       </c>
       <c r="F16" t="n">
-        <v>8.575538495674e-40</v>
+        <v>2.94941225122458e-25</v>
       </c>
       <c r="G16" t="n">
-        <v>4.934364850410819e-37</v>
+        <v>6.400224585157339e-23</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -3790,22 +3510,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>800.6012242353181</v>
+        <v>808.3255866714085</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9171407973028952</v>
+        <v>0.9469584658651294</v>
       </c>
       <c r="D17" t="n">
-        <v>0.08673052207558508</v>
+        <v>0.1116311469297729</v>
       </c>
       <c r="E17" t="n">
-        <v>10.57460252001727</v>
+        <v>8.482923376760255</v>
       </c>
       <c r="F17" t="n">
-        <v>3.90831199925535e-26</v>
+        <v>2.196052863765449e-17</v>
       </c>
       <c r="G17" t="n">
-        <v>8.031581158469743e-24</v>
+        <v>3.64415595804843e-15</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -3830,22 +3550,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>807.5095907461638</v>
+        <v>833.4213962653056</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8992343034040665</v>
+        <v>0.9244166327235535</v>
       </c>
       <c r="D18" t="n">
-        <v>0.08980716148073484</v>
+        <v>0.1087923009152687</v>
       </c>
       <c r="E18" t="n">
-        <v>10.01294650201106</v>
+        <v>8.497077687910304</v>
       </c>
       <c r="F18" t="n">
-        <v>1.337097432619259e-23</v>
+        <v>1.944233192898529e-17</v>
       </c>
       <c r="G18" t="n">
-        <v>2.404268321028505e-21</v>
+        <v>3.427926148229219e-15</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -3870,22 +3590,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3067.157300353256</v>
+        <v>3141.23895817878</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8743404464214414</v>
+        <v>0.9126075249364465</v>
       </c>
       <c r="D19" t="n">
-        <v>0.111851672175258</v>
+        <v>0.1372959404997135</v>
       </c>
       <c r="E19" t="n">
-        <v>7.816963568067682</v>
+        <v>6.647010258386707</v>
       </c>
       <c r="F19" t="n">
-        <v>5.411275677423482e-15</v>
+        <v>2.99106191615375e-11</v>
       </c>
       <c r="G19" t="n">
-        <v>6.4867667183114e-13</v>
+        <v>3.668602463247708e-09</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -3906,26 +3626,26 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>MED134_04254</t>
+          <t>MED134_10216</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4496.38753685577</v>
+        <v>226.7562521455409</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8455936279577994</v>
+        <v>0.8726525478903945</v>
       </c>
       <c r="D20" t="n">
-        <v>0.08907096710562341</v>
+        <v>0.152665160753787</v>
       </c>
       <c r="E20" t="n">
-        <v>9.493482056336779</v>
+        <v>5.716121108323974</v>
       </c>
       <c r="F20" t="n">
-        <v>2.23442953365073e-21</v>
+        <v>1.089830792974287e-08</v>
       </c>
       <c r="G20" t="n">
-        <v>3.571363204618417e-19</v>
+        <v>1.098004523921594e-06</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -3946,30 +3666,30 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>MED134_02025</t>
+          <t>MED134_05954</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>653.5838704876398</v>
+        <v>6106.101436721874</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8303148286781584</v>
+        <v>0.8413754006436801</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1296756811421772</v>
+        <v>0.1567741360001533</v>
       </c>
       <c r="E21" t="n">
-        <v>6.403011122554247</v>
+        <v>5.366799793065721</v>
       </c>
       <c r="F21" t="n">
-        <v>1.523420900614752e-10</v>
+        <v>8.014593467151681e-08</v>
       </c>
       <c r="G21" t="n">
-        <v>1.565314975381658e-08</v>
+        <v>7.531016070265722e-06</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>hypothetical protein</t>
+          <t>sugar transferase</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -3986,26 +3706,26 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>MED134_10216</t>
+          <t>MED134_04254</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>218.2811045657978</v>
+        <v>4495.986363930939</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8131199873860473</v>
+        <v>0.785296963177902</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1295999373112501</v>
+        <v>0.1078266908623776</v>
       </c>
       <c r="E22" t="n">
-        <v>6.274077011574783</v>
+        <v>7.282955239535263</v>
       </c>
       <c r="F22" t="n">
-        <v>3.517144028105442e-10</v>
+        <v>3.265856113268283e-13</v>
       </c>
       <c r="G22" t="n">
-        <v>3.372941122953118e-08</v>
+        <v>4.606490047764914e-11</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -4026,26 +3746,26 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>MED134_11080</t>
+          <t>MED134_07209</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1360.172100771495</v>
+        <v>2726.459376047275</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8059795044030131</v>
+        <v>0.7794696758136677</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1500368899587746</v>
+        <v>0.1792108886717291</v>
       </c>
       <c r="E23" t="n">
-        <v>5.37187557423025</v>
+        <v>4.349454888544563</v>
       </c>
       <c r="F23" t="n">
-        <v>7.792187115299151e-08</v>
+        <v>1.364763540561003e-05</v>
       </c>
       <c r="G23" t="n">
-        <v>6.227256202976572e-06</v>
+        <v>0.0009624994869806472</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -4066,230 +3786,230 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>MED134_05894</t>
+          <t>MED134_11205</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>317.6507549459345</v>
+        <v>50253.15577630536</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7978476293115624</v>
+        <v>0.7614870998810886</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1826048978765639</v>
+        <v>0.08033325745212849</v>
       </c>
       <c r="E24" t="n">
-        <v>4.369256458010706</v>
+        <v>9.479101483403278</v>
       </c>
       <c r="F24" t="n">
-        <v>1.246702889055523e-05</v>
+        <v>2.564819837707213e-21</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0006079261375953797</v>
+        <v>5.168111972980035e-19</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>arginase family protein</t>
+          <t>fungalysin metallopeptidase (M36)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>['00330 Arginine and proline metabolism [PATH:dok00330]']</t>
+          <t>Unspecified</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>['09105 Amino acid metabolism']</t>
+          <t>Unspecified</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>MED134_07209</t>
+          <t>MED134_13066</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2728.309513318298</v>
+        <v>2076.278084867568</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7737460385029953</v>
+        <v>0.6858422622797158</v>
       </c>
       <c r="D25" t="n">
-        <v>0.146669456561514</v>
+        <v>0.100374438155659</v>
       </c>
       <c r="E25" t="n">
-        <v>5.275440822121555</v>
+        <v>6.832837870694957</v>
       </c>
       <c r="F25" t="n">
-        <v>1.324373444594314e-07</v>
+        <v>8.325102827272688e-12</v>
       </c>
       <c r="G25" t="n">
-        <v>1.029789837864282e-05</v>
+        <v>1.067505230715284e-09</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>hypothetical protein</t>
+          <t>beta-carotene hydroxylase</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Unspecified</t>
+          <t>['00906 Carotenoid biosynthesis [PATH:dok00906]']</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Unspecified</t>
+          <t>['09109 Metabolism of terpenoids and polyketides']</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>MED134_11205</t>
+          <t>MED134_05889</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>49373.3264194825</v>
+        <v>332.1000930147071</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7032494736248972</v>
+        <v>0.6850292281315842</v>
       </c>
       <c r="D26" t="n">
-        <v>0.06794323085947698</v>
+        <v>0.1568814442218744</v>
       </c>
       <c r="E26" t="n">
-        <v>10.35054507607074</v>
+        <v>4.366540807482371</v>
       </c>
       <c r="F26" t="n">
-        <v>4.161099665336523e-25</v>
+        <v>1.262297134501119e-05</v>
       </c>
       <c r="G26" t="n">
-        <v>7.980989158115451e-23</v>
+        <v>0.0009130615939558095</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>fungalysin metallopeptidase (M36)</t>
+          <t>Orn/DAP/Arg decarboxylase</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Unspecified</t>
+          <t>['00330 Arginine and proline metabolism [PATH:dok00330]']</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Unspecified</t>
+          <t>['09105 Amino acid metabolism']</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>MED134_05889</t>
+          <t>MED134_02025</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>334.6839924537576</v>
+        <v>622.7567519335523</v>
       </c>
       <c r="C27" t="n">
-        <v>0.6832604950580751</v>
+        <v>0.6615557435577335</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1263780972902579</v>
+        <v>0.1128937837325883</v>
       </c>
       <c r="E27" t="n">
-        <v>5.406478730952895</v>
+        <v>5.859983797910091</v>
       </c>
       <c r="F27" t="n">
-        <v>6.427585599996658e-08</v>
+        <v>4.629123334676995e-09</v>
       </c>
       <c r="G27" t="n">
-        <v>5.283475363197253e-06</v>
+        <v>5.022598818124539e-07</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Orn/DAP/Arg decarboxylase</t>
+          <t>hypothetical protein</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>['00330 Arginine and proline metabolism [PATH:dok00330]']</t>
+          <t>Unspecified</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>['09105 Amino acid metabolism']</t>
+          <t>Unspecified</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>MED134_13066</t>
+          <t>MED134_11080</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2016.221694872156</v>
+        <v>1280.373025663684</v>
       </c>
       <c r="C28" t="n">
-        <v>0.6558625479230639</v>
+        <v>0.6600778736931379</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0826645498008535</v>
+        <v>0.146696166394102</v>
       </c>
       <c r="E28" t="n">
-        <v>7.934024312756763</v>
+        <v>4.499625926964077</v>
       </c>
       <c r="F28" t="n">
-        <v>2.121565368353862e-15</v>
+        <v>6.807314492721011e-06</v>
       </c>
       <c r="G28" t="n">
-        <v>2.653801549893069e-13</v>
+        <v>0.000519011734701783</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>beta-carotene hydroxylase</t>
+          <t>hypothetical protein</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>['00906 Carotenoid biosynthesis [PATH:dok00906]']</t>
+          <t>Unspecified</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>['09109 Metabolism of terpenoids and polyketides']</t>
+          <t>Unspecified</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>MED134_16490</t>
+          <t>MED134_11831</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>499.3586900686033</v>
+        <v>398.9889121185554</v>
       </c>
       <c r="C29" t="n">
-        <v>0.6537413815883165</v>
+        <v>0.6496635628495214</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1851864564162327</v>
+        <v>0.1447470912102975</v>
       </c>
       <c r="E29" t="n">
-        <v>3.530179227140351</v>
+        <v>4.488266792910196</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0004152782460245841</v>
+        <v>7.180497017409902e-06</v>
       </c>
       <c r="G29" t="n">
-        <v>0.007561743758308408</v>
+        <v>0.0005330574233187719</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>GIY-YIG catalytic domain protein</t>
+          <t>hypothetical protein</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -4306,30 +4026,30 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>MED134_05339</t>
+          <t>MED134_14266</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1152.54838556819</v>
+        <v>1171.932321263634</v>
       </c>
       <c r="C30" t="n">
-        <v>0.6324429516924047</v>
+        <v>0.6227394140285275</v>
       </c>
       <c r="D30" t="n">
-        <v>0.1067093686775765</v>
+        <v>0.1072183270056332</v>
       </c>
       <c r="E30" t="n">
-        <v>5.926779996265726</v>
+        <v>5.808143359631131</v>
       </c>
       <c r="F30" t="n">
-        <v>3.089324200578412e-09</v>
+        <v>6.316941784247267e-09</v>
       </c>
       <c r="G30" t="n">
-        <v>2.867092169375514e-07</v>
+        <v>6.600034360504274e-07</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>hypothetical protein</t>
+          <t>deoxyribodipyrimidine photo-lyase, class I</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -4346,110 +4066,110 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>MED134_13071</t>
+          <t>MED134_11476</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2417.000097422138</v>
+        <v>7190.103416118828</v>
       </c>
       <c r="C31" t="n">
-        <v>0.6256796318108813</v>
+        <v>0.6115035977481693</v>
       </c>
       <c r="D31" t="n">
-        <v>0.08929513698282598</v>
+        <v>0.1116980213873504</v>
       </c>
       <c r="E31" t="n">
-        <v>7.006872411553805</v>
+        <v>5.474614412618602</v>
       </c>
       <c r="F31" t="n">
-        <v>2.437043106226977e-12</v>
+        <v>4.384652788224881e-08</v>
       </c>
       <c r="G31" t="n">
-        <v>2.696681929467312e-10</v>
+        <v>4.265208798476686e-06</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>phytoene synthase</t>
+          <t>periplasmic protein TonB</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>['00906 Carotenoid biosynthesis [PATH:dok00906]']</t>
+          <t>Unspecified</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>['09109 Metabolism of terpenoids and polyketides']</t>
+          <t>Unspecified</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>MED134_14266</t>
+          <t>MED134_13071</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1145.491972142432</v>
+        <v>2407.235348593983</v>
       </c>
       <c r="C32" t="n">
-        <v>0.6087764720434305</v>
+        <v>0.6014503656334624</v>
       </c>
       <c r="D32" t="n">
-        <v>0.08418971507638497</v>
+        <v>0.1121897709145671</v>
       </c>
       <c r="E32" t="n">
-        <v>7.231007629507836</v>
+        <v>5.361008946987414</v>
       </c>
       <c r="F32" t="n">
-        <v>4.794234137278549e-13</v>
+        <v>8.275841835456838e-08</v>
       </c>
       <c r="G32" t="n">
-        <v>5.517204645180155e-11</v>
+        <v>7.531016070265722e-06</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>deoxyribodipyrimidine photo-lyase, class I</t>
+          <t>phytoene synthase</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Unspecified</t>
+          <t>['00906 Carotenoid biosynthesis [PATH:dok00906]']</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Unspecified</t>
+          <t>['09109 Metabolism of terpenoids and polyketides']</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>MED134_06129</t>
+          <t>MED134_05959</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>18743.37451548941</v>
+        <v>8373.916832529192</v>
       </c>
       <c r="C33" t="n">
-        <v>0.5889250006316743</v>
+        <v>0.5926598526127163</v>
       </c>
       <c r="D33" t="n">
-        <v>0.1390317343671192</v>
+        <v>0.1210159728170203</v>
       </c>
       <c r="E33" t="n">
-        <v>4.235903431058357</v>
+        <v>4.897368825095803</v>
       </c>
       <c r="F33" t="n">
-        <v>2.276345992199616e-05</v>
+        <v>9.712842966663624e-07</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0009774697641131785</v>
+        <v>7.828551431130881e-05</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>cold shock domain protein CspD</t>
+          <t>glycosyl transferases group 1</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -4466,30 +4186,30 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>MED134_05499</t>
+          <t>MED134_08101</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>403.5465217391625</v>
+        <v>5937.405601606253</v>
       </c>
       <c r="C34" t="n">
-        <v>0.5482094731698691</v>
+        <v>0.567779341681637</v>
       </c>
       <c r="D34" t="n">
-        <v>0.1326566279696651</v>
+        <v>0.144017110263084</v>
       </c>
       <c r="E34" t="n">
-        <v>4.132544913588709</v>
+        <v>3.942443648844523</v>
       </c>
       <c r="F34" t="n">
-        <v>3.58768632181052e-05</v>
+        <v>8.065560443904266e-05</v>
       </c>
       <c r="G34" t="n">
-        <v>0.001408352405604185</v>
+        <v>0.004841052343032752</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>hypothetical protein</t>
+          <t>transcription regulator, LuxR/FixJ family</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -4506,30 +4226,30 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>MED134_06194</t>
+          <t>MED134_02070</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>401.322059194135</v>
+        <v>2188.659290859296</v>
       </c>
       <c r="C35" t="n">
-        <v>0.5481087915957913</v>
+        <v>0.5498493309518275</v>
       </c>
       <c r="D35" t="n">
-        <v>0.1249215936816636</v>
+        <v>0.1467157936092681</v>
       </c>
       <c r="E35" t="n">
-        <v>4.387622471360165</v>
+        <v>3.747717389009805</v>
       </c>
       <c r="F35" t="n">
-        <v>1.14596467011913e-05</v>
+        <v>0.0001784511555050218</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0005784105887601292</v>
+        <v>0.008679494994477007</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>hypothetical protein</t>
+          <t>MIP family channel protein</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -4546,30 +4266,30 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>MED134_07319</t>
+          <t>MED134_06804</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>360.5984041792522</v>
+        <v>3864.407574194202</v>
       </c>
       <c r="C36" t="n">
-        <v>0.5451237781865098</v>
+        <v>0.5348371080160936</v>
       </c>
       <c r="D36" t="n">
-        <v>0.1557363267955488</v>
+        <v>0.1275312316886044</v>
       </c>
       <c r="E36" t="n">
-        <v>3.50029944460004</v>
+        <v>4.193773563812324</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0004647357916201867</v>
+        <v>2.743518547323136e-05</v>
       </c>
       <c r="G36" t="n">
-        <v>0.008253048273579788</v>
+        <v>0.001842729957618706</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>hypothetical protein</t>
+          <t>two-component system response regulator</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -4586,30 +4306,30 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>MED134_04249</t>
+          <t>MED134_04869</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2770.711806281191</v>
+        <v>8046.53292556675</v>
       </c>
       <c r="C37" t="n">
-        <v>0.544902981240183</v>
+        <v>0.5254322570766756</v>
       </c>
       <c r="D37" t="n">
-        <v>0.07862736549915143</v>
+        <v>0.1359646369879451</v>
       </c>
       <c r="E37" t="n">
-        <v>6.930195076243064</v>
+        <v>3.864477328198665</v>
       </c>
       <c r="F37" t="n">
-        <v>4.202606892879095e-12</v>
+        <v>0.0001113273293020529</v>
       </c>
       <c r="G37" t="n">
-        <v>4.478111122523391e-10</v>
+        <v>0.006281087919221827</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>hypothetical protein</t>
+          <t>type VI secretion system OmpA/MotB family protein</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -4626,30 +4346,30 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>MED134_11831</t>
+          <t>MED134_08761</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>392.191854206093</v>
+        <v>1274.768819146962</v>
       </c>
       <c r="C38" t="n">
-        <v>0.5275197364540944</v>
+        <v>0.5174675635348984</v>
       </c>
       <c r="D38" t="n">
-        <v>0.1294166541351998</v>
+        <v>0.1017648623625917</v>
       </c>
       <c r="E38" t="n">
-        <v>4.076134868260477</v>
+        <v>5.084933556841492</v>
       </c>
       <c r="F38" t="n">
-        <v>4.579046672836488e-05</v>
+        <v>3.67754786935907e-07</v>
       </c>
       <c r="G38" t="n">
-        <v>0.001606575277774461</v>
+        <v>3.051283099841746e-05</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>hypothetical protein</t>
+          <t>multidrug resistance protein</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -4666,26 +4386,26 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>MED134_01275</t>
+          <t>MED134_04249</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>291.1008054727912</v>
+        <v>2760.150596471435</v>
       </c>
       <c r="C39" t="n">
-        <v>0.519320326614179</v>
+        <v>0.5151266931770463</v>
       </c>
       <c r="D39" t="n">
-        <v>0.1245803484200227</v>
+        <v>0.09878614048707578</v>
       </c>
       <c r="E39" t="n">
-        <v>4.168557346326328</v>
+        <v>5.214564418016113</v>
       </c>
       <c r="F39" t="n">
-        <v>3.065336427547593e-05</v>
+        <v>1.842496674411129e-07</v>
       </c>
       <c r="G39" t="n">
-        <v>0.001278112014790497</v>
+        <v>1.575055490458726e-05</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -4706,30 +4426,30 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>MED134_15862</t>
+          <t>MED134_08096</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2577.18718331053</v>
+        <v>14246.51444377497</v>
       </c>
       <c r="C40" t="n">
-        <v>0.5151565245796571</v>
+        <v>0.5150203255192157</v>
       </c>
       <c r="D40" t="n">
-        <v>0.1351839550527496</v>
+        <v>0.1357820455744617</v>
       </c>
       <c r="E40" t="n">
-        <v>3.810781570776206</v>
+        <v>3.792992831565371</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0001385281289582048</v>
+        <v>0.0001488424548849507</v>
       </c>
       <c r="G40" t="n">
-        <v>0.003549873467756812</v>
+        <v>0.007775640096860108</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>hypothetical protein</t>
+          <t>putative esterase</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -4746,70 +4466,70 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>MED134_03869</t>
+          <t>MED134_05339</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>26090.19287090645</v>
+        <v>1112.471741502361</v>
       </c>
       <c r="C41" t="n">
-        <v>0.5089018651864398</v>
+        <v>0.5120973309577104</v>
       </c>
       <c r="D41" t="n">
-        <v>0.09247099780274723</v>
+        <v>0.09591697922022005</v>
       </c>
       <c r="E41" t="n">
-        <v>5.503367296544093</v>
+        <v>5.338964332706552</v>
       </c>
       <c r="F41" t="n">
-        <v>3.726050181799176e-08</v>
+        <v>9.347903031518342e-08</v>
       </c>
       <c r="G41" t="n">
-        <v>3.15289599206948e-06</v>
+        <v>8.240760766222888e-06</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>50S ribosomal protein L31</t>
+          <t>hypothetical protein</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>['03010 Ribosome [PATH:dok03010]']</t>
+          <t>Unspecified</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>['09122 Translation']</t>
+          <t>Unspecified</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>MED134_06804</t>
+          <t>MED134_09911</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3842.526612630507</v>
+        <v>6968.08649933101</v>
       </c>
       <c r="C42" t="n">
-        <v>0.5012134432069857</v>
+        <v>0.5059993319031885</v>
       </c>
       <c r="D42" t="n">
-        <v>0.1023531247708137</v>
+        <v>0.1275148699737475</v>
       </c>
       <c r="E42" t="n">
-        <v>4.896904167110572</v>
+        <v>3.968159415504737</v>
       </c>
       <c r="F42" t="n">
-        <v>9.735828796101944e-07</v>
+        <v>7.242987825827411e-05</v>
       </c>
       <c r="G42" t="n">
-        <v>6.513948708461697e-05</v>
+        <v>0.004441841012317201</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>two-component system response regulator</t>
+          <t>hypothetical protein</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -4818,6 +4538,46 @@
         </is>
       </c>
       <c r="J42" t="inlineStr">
+        <is>
+          <t>Unspecified</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>MED134_12786</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>282.2140031805986</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.5049913290086659</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.1362114695429965</v>
+      </c>
+      <c r="E43" t="n">
+        <v>3.70740680430924</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.0002093924362774595</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.009683542012110052</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>hypothetical protein</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Unspecified</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
         <is>
           <t>Unspecified</t>
         </is>
@@ -4901,22 +4661,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4666.645024414102</v>
+        <v>4655.406872055378</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.5213952682345571</v>
+        <v>-0.5414238243055417</v>
       </c>
       <c r="D2" t="n">
-        <v>0.05430365912933417</v>
+        <v>0.06905105790052642</v>
       </c>
       <c r="E2" t="n">
-        <v>-9.601475786240448</v>
+        <v>-7.840920049125187</v>
       </c>
       <c r="F2" t="n">
-        <v>7.88078419849916e-22</v>
+        <v>4.472571554109301e-15</v>
       </c>
       <c r="G2" t="n">
-        <v>1.333706831710711e-19</v>
+        <v>7.009513530079076e-13</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -4941,22 +4701,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>999.0646264170467</v>
+        <v>1009.834162305679</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.5541406416460629</v>
+        <v>-0.5418148004751011</v>
       </c>
       <c r="D3" t="n">
-        <v>0.06702333299253184</v>
+        <v>0.08983658636052798</v>
       </c>
       <c r="E3" t="n">
-        <v>-8.267876527534206</v>
+        <v>-6.031115188423516</v>
       </c>
       <c r="F3" t="n">
-        <v>1.363660120210734e-16</v>
+        <v>1.628320670912339e-09</v>
       </c>
       <c r="G3" t="n">
-        <v>1.96162508292314e-14</v>
+        <v>1.913955255268212e-07</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -4981,22 +4741,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1173.214620663261</v>
+        <v>1169.182016947783</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.7082845802293142</v>
+        <v>-0.7458707681083744</v>
       </c>
       <c r="D4" t="n">
-        <v>0.08351196934389775</v>
+        <v>0.1025702526789137</v>
       </c>
       <c r="E4" t="n">
-        <v>-8.481234316396453</v>
+        <v>-7.271803945372455</v>
       </c>
       <c r="F4" t="n">
-        <v>2.228173710761041e-17</v>
+        <v>3.547181723947254e-13</v>
       </c>
       <c r="G4" t="n">
-        <v>3.373924087294482e-15</v>
+        <v>4.765047449169145e-11</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -7138,12 +6898,12 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>['01501 beta-Lactam resistance [PATH:dok01501]', '01503 Cationic antimicrobial peptide (CAMP) resistance [PATH:dok01503]']</t>
+          <t>Unspecified</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>['09175 Drug resistance: antimicrobial', '09175 Drug resistance: antimicrobial']</t>
+          <t>Unspecified</t>
         </is>
       </c>
     </row>
